--- a/export/results.xlsx
+++ b/export/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2258,6 +2258,251 @@
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Доллар</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1224.0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2022/11/24</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>13</v>
+      </c>
+      <c r="H51" t="n">
+        <v>14688.35</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Евро</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Покупка</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2022/11/24</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>13</v>
+      </c>
+      <c r="H52" t="n">
+        <v>144.24</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Евро</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Покупка</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2022/11/24</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>13</v>
+      </c>
+      <c r="H53" t="n">
+        <v>144.24</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Доллар</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Покупка</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2022/11/24</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>39</v>
+      </c>
+      <c r="H54" t="n">
+        <v>397.05</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Доллар</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Покупка</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2022/11/24</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>15</v>
+      </c>
+      <c r="H55" t="n">
+        <v>144.48</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Рубль</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2022/11/24</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="H56" t="n">
+        <v>132.23</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Рубль</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2022/11/24</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="H57" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
